--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Infarto de Miocardio (INC).xlsx
@@ -455,7 +455,7 @@
         <v>18.30040560770161</v>
       </c>
       <c r="B2" t="n">
-        <v>1.170702710613737</v>
+        <v>1.170702710613738</v>
       </c>
       <c r="C2" t="n">
         <v>40.46615365235183</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.560562152194008</v>
+        <v>7.560562152194009</v>
       </c>
       <c r="B5" t="n">
         <v>0.4607703823524668</v>
@@ -521,7 +521,7 @@
         <v>26.40932674278658</v>
       </c>
       <c r="B8" t="n">
-        <v>1.539236035096501</v>
+        <v>1.5392360350965</v>
       </c>
       <c r="C8" t="n">
         <v>56.99632410622715</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.948617774684719</v>
+        <v>8.948617774684722</v>
       </c>
       <c r="B15" t="n">
         <v>0.6497881875598803</v>
@@ -653,7 +653,7 @@
         <v>14.44777002122302</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9970538930378897</v>
+        <v>0.9970538930378898</v>
       </c>
       <c r="C20" t="n">
         <v>32.60460843319898</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.42377445461058</v>
+        <v>11.42377445461059</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7944848923151913</v>
+        <v>0.7944848923151915</v>
       </c>
       <c r="C21" t="n">
-        <v>26.48256787112078</v>
+        <v>26.48256787112079</v>
       </c>
     </row>
     <row r="22">
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.061889887694932</v>
+        <v>9.061889887694935</v>
       </c>
       <c r="B23" t="n">
-        <v>0.597750663618309</v>
+        <v>0.5977506636183092</v>
       </c>
       <c r="C23" t="n">
         <v>21.68613337950056</v>
@@ -708,7 +708,7 @@
         <v>11.81684770080038</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6556548892593823</v>
+        <v>0.6556548892593822</v>
       </c>
       <c r="C25" t="n">
         <v>27.35641064615165</v>
@@ -719,7 +719,7 @@
         <v>10.84301875637544</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6479384657699133</v>
+        <v>0.6479384657699135</v>
       </c>
       <c r="C26" t="n">
         <v>25.32835202839573</v>
@@ -730,7 +730,7 @@
         <v>28.24352585489163</v>
       </c>
       <c r="B27" t="n">
-        <v>1.998229352599749</v>
+        <v>1.99822935259975</v>
       </c>
       <c r="C27" t="n">
         <v>60.56359910267399</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.755917698940287</v>
+        <v>9.755917698940291</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6922595662220157</v>
+        <v>0.692259566222016</v>
       </c>
       <c r="C29" t="n">
         <v>23.07032131643271</v>
@@ -788,7 +788,7 @@
         <v>1.635594659490174</v>
       </c>
       <c r="C32" t="n">
-        <v>54.50832130005704</v>
+        <v>54.50832130005705</v>
       </c>
     </row>
     <row r="33">
@@ -796,7 +796,7 @@
         <v>23.83147466578848</v>
       </c>
       <c r="B33" t="n">
-        <v>1.606642546669638</v>
+        <v>1.606642546669637</v>
       </c>
       <c r="C33" t="n">
         <v>51.6731826667315</v>
@@ -818,7 +818,7 @@
         <v>14.04412005909524</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9758182037068219</v>
+        <v>0.975818203706822</v>
       </c>
       <c r="C35" t="n">
         <v>31.79752841762936</v>
@@ -840,7 +840,7 @@
         <v>11.82742441673837</v>
       </c>
       <c r="B37" t="n">
-        <v>0.815720581646259</v>
+        <v>0.8157205816462593</v>
       </c>
       <c r="C37" t="n">
         <v>27.2896478866904</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17.90733236151181</v>
+        <v>17.90733236151182</v>
       </c>
       <c r="B39" t="n">
-        <v>1.309532713669546</v>
+        <v>1.309532713669547</v>
       </c>
       <c r="C39" t="n">
         <v>39.59231087732096</v>
@@ -873,7 +873,7 @@
         <v>9.745340983002302</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5321938738351388</v>
+        <v>0.5321938738351389</v>
       </c>
       <c r="C40" t="n">
         <v>23.13708407589396</v>
@@ -884,7 +884,7 @@
         <v>16.07313324940676</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8505393961662977</v>
+        <v>0.8505393961662976</v>
       </c>
       <c r="C41" t="n">
         <v>36.02503588087412</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.486879945433303</v>
+        <v>9.486879945433305</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5475947911403907</v>
+        <v>0.5475947911403906</v>
       </c>
       <c r="C49" t="n">
         <v>22.6185580210056</v>
@@ -983,7 +983,7 @@
         <v>12.11780226585594</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8889937949188981</v>
+        <v>0.8889937949188982</v>
       </c>
       <c r="C50" t="n">
         <v>27.86675580805293</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8.658239925567148</v>
+        <v>8.65823992556715</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5765149742872413</v>
+        <v>0.5765149742872414</v>
       </c>
       <c r="C54" t="n">
         <v>20.87905336393095</v>
@@ -1038,7 +1038,7 @@
         <v>11.2785855300518</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7578482856788717</v>
+        <v>0.757848285678872</v>
       </c>
       <c r="C55" t="n">
         <v>26.19401391043952</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11.68223549217958</v>
+        <v>11.68223549217959</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7790839750099395</v>
+        <v>0.7790839750099398</v>
       </c>
       <c r="C58" t="n">
         <v>27.00109392600914</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.49745666137129</v>
+        <v>9.497456661371292</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7076604835272675</v>
+        <v>0.7076604835272677</v>
       </c>
       <c r="C60" t="n">
         <v>22.55179526154436</v>
@@ -1129,15 +1129,15 @@
         <v>1.853532647844438</v>
       </c>
       <c r="C63" t="n">
-        <v>55.53719251684667</v>
+        <v>55.53719251684668</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.352267736812504</v>
+        <v>9.352267736812507</v>
       </c>
       <c r="B64" t="n">
-        <v>0.671023876890948</v>
+        <v>0.6710238768909481</v>
       </c>
       <c r="C64" t="n">
         <v>22.26324130086309</v>
@@ -1148,7 +1148,7 @@
         <v>24.22454791197828</v>
       </c>
       <c r="B65" t="n">
-        <v>1.467812543613829</v>
+        <v>1.467812543613828</v>
       </c>
       <c r="C65" t="n">
         <v>52.54702544176237</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19.97883907930989</v>
+        <v>19.9788390793099</v>
       </c>
       <c r="B66" t="n">
         <v>1.43299372909379</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.87493556792401</v>
+        <v>10.87493556792402</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7366125963478041</v>
+        <v>0.7366125963478042</v>
       </c>
       <c r="C68" t="n">
         <v>25.3869338948699</v>
@@ -1203,7 +1203,7 @@
         <v>9.600152058443516</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4955572671988193</v>
+        <v>0.4955572671988194</v>
       </c>
       <c r="C70" t="n">
         <v>22.8485301152127</v>
@@ -1214,7 +1214,7 @@
         <v>13.74316549403968</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7424792980473062</v>
+        <v>0.7424792980473061</v>
       </c>
       <c r="C71" t="n">
         <v>31.28718325572808</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15.27641004108917</v>
+        <v>15.27641004108918</v>
       </c>
       <c r="B72" t="n">
         <v>0.9681337098910391</v>
